--- a/results/optimization_results/cfc/cfc_results.xlsx
+++ b/results/optimization_results/cfc/cfc_results.xlsx
@@ -2778,22 +2778,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>636</v>
       </c>
       <c r="C2" t="n">
-        <v>1.177197464755062</v>
+        <v>1.030354795083571</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1600880234798143</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="n">
         <v>1.001</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3">
@@ -2801,22 +2801,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>127</v>
+        <v>624</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.8722874034249394</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-0.1988943718412705</v>
       </c>
       <c r="F3" t="n">
-        <v>1.001</v>
+        <v>2.497255835710833</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001</v>
+        <v>0.931135295829163</v>
       </c>
     </row>
     <row r="4">
@@ -2824,22 +2824,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>127</v>
+        <v>637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9971351706396649</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2359078813474992</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3174027694129498</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>1.797960787282384</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6001621457822663</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
@@ -2847,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>638</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -2859,10 +2859,10 @@
         <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>1.001</v>
+        <v>2.380531664662494</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6">
@@ -2870,22 +2870,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>127</v>
+        <v>638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9364877567949621</v>
+        <v>0.6873389414318158</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.001</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
         <v>1.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9085522480725148</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
@@ -2893,22 +2893,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>126</v>
+        <v>625</v>
       </c>
       <c r="C7" t="n">
-        <v>1.487935428617879</v>
+        <v>1.544792614611256</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="E7" t="n">
         <v>-1</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2701574372432</v>
+        <v>1.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2916,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>127</v>
+        <v>627</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -2928,10 +2928,10 @@
         <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>1.084978859389314</v>
+        <v>1.001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7165152670575006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9">
@@ -2939,22 +2939,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>127</v>
+        <v>618</v>
       </c>
       <c r="C9" t="n">
-        <v>1.441767411300657</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3651470805009895</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8156120440745346</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="n">
-        <v>1.490507119645039</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9808358922315891</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -2962,19 +2962,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>126</v>
+        <v>627</v>
       </c>
       <c r="C10" t="n">
-        <v>1.249811174422801</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-1</v>
+        <v>-0.001</v>
       </c>
       <c r="F10" t="n">
-        <v>1.001</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2985,22 +2985,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>127</v>
+        <v>633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2817482946789158</v>
+        <v>1.566938059915472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2522576032413088</v>
+        <v>0.001</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9127642147283707</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>1.818364046492529</v>
+        <v>1.001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02056290849615013</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
